--- a/Configs/Datas/BulletData.xlsx
+++ b/Configs/Datas/BulletData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21210" windowHeight="11925"/>
+    <workbookView windowWidth="16215" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1054,10 +1054,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1"/>
       <c r="H1" s="1"/>
-      <c r="I1"/>
-      <c r="J1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
@@ -1080,10 +1077,6 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
@@ -1096,13 +1089,6 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
@@ -1114,13 +1100,13 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1131,13 +1117,13 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1148,13 +1134,13 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1165,13 +1151,13 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0.5</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/BulletData.xlsx
+++ b/Configs/Datas/BulletData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16215" windowHeight="10020"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1022,13 +1022,13 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="7" width="20.375" customWidth="1"/>
     <col min="8" max="8" width="8.5" customWidth="1"/>
